--- a/SAO_JOSE_DO_OURO.xlsx
+++ b/SAO_JOSE_DO_OURO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D72EF8-83E0-4908-B8AB-16DC2F3260EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46725557-9C28-48C2-BD8F-16F5CD82B861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{50B5FE99-F9C5-4D57-90D8-25728CA8B32C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F561DC26-F20B-40FC-8D5A-9302C662F4A7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,10 +1227,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDDA44F-D215-45AA-9A42-AC11326AC32F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6740B22-2DAF-454C-B9FE-27C945372B79}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526DC9E5-CA75-4F8E-9A0D-B721692FDD0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF786A32-8A90-4138-86A6-F3F780F2EDB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B85C6E6-1513-4EA1-9974-2E97B84705CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5B35B5-93C0-4864-AB33-CD405FB8366A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D015EC-3918-F788-0650-269535380717}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2F3411-ABAD-C980-E2FD-B24979F8A3C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B36204-6DE5-9EDE-AF6F-8F478C86F1D4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2E3B69-E4A3-C82F-6D52-22A3B9AE20D5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189C841B-A9A1-784F-F56C-8612B6958A67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1330347-C646-8A4B-7279-4B9E80C2B650}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1449,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696DBBB5-57E0-45B3-3677-EF04E8E92C9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B7BC6F-D4F4-3800-A3AE-FBFB9639E58F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34BE361-1AD3-361D-076A-8D2905D24A63}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD75D198-9009-CADE-50EA-44F6F1219B17}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1523,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6648DB-4BDC-4433-ADF8-5277BF8C387B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788DE38A-32DB-4B3F-9D17-995236A51AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1561,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638CADED-4534-4536-9213-825FEFF21B27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECAD73E-8284-4FDA-947A-FA240D57723E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22060B88-8948-4703-A753-76AC2E7E6CF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B81DA5-3BCF-470D-889D-F33FB6876098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F7B598-932D-4C1E-974B-D80EEBE5B48B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757E2468-4C43-449A-AA39-58A9D7A4C2AB}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_JOSE_DO_OURO.xlsx
+++ b/SAO_JOSE_DO_OURO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46725557-9C28-48C2-BD8F-16F5CD82B861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78502364-EE61-4C54-8ED8-EC1B3248393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="297">
   <si>
     <t>COMARCA</t>
   </si>
@@ -917,15 +916,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO JOSÉ DO OURO</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,27 +1167,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F561DC26-F20B-40FC-8D5A-9302C662F4A7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C58DA498-1547-4B1F-B6C0-9723AEA6167E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6740B22-2DAF-454C-B9FE-27C945372B79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92690BA4-0A45-4560-B387-2359A4816B1B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF786A32-8A90-4138-86A6-F3F780F2EDB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE2AE81-5FFC-4B7E-806B-147BC57D9956}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5B35B5-93C0-4864-AB33-CD405FB8366A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC96361B-58ED-4DAD-A0C0-1153B14EB0BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2F3411-ABAD-C980-E2FD-B24979F8A3C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6F549A-0D11-8A65-6DE9-265DDE53BD80}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1399,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2E3B69-E4A3-C82F-6D52-22A3B9AE20D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC826D76-8D64-63A0-8B78-80491154ADD2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1330347-C646-8A4B-7279-4B9E80C2B650}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4943A1-6F70-F386-EDF8-9A71465E6B6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B7BC6F-D4F4-3800-A3AE-FBFB9639E58F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CE59AF-739F-F09C-EE2C-238E639D5D5A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD75D198-9009-CADE-50EA-44F6F1219B17}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C08657B-E269-640D-F87D-B1E6073BA8F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788DE38A-32DB-4B3F-9D17-995236A51AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A98550-3B93-473E-A98A-87C4A3297EC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECAD73E-8284-4FDA-947A-FA240D57723E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF722E3-AFEA-4850-A13E-ED8E1C94CFA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1579,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B81DA5-3BCF-470D-889D-F33FB6876098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFB3E78-06E8-4898-A971-6112737DE31E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757E2468-4C43-449A-AA39-58A9D7A4C2AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9787EB0-2D88-4EA9-BD91-E236102083C8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1929,98 +1904,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5455,52 +5430,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="31">
-        <v>10</v>
-      </c>
-      <c r="C2" s="29">
-        <v>6.6128818939293742E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_JOSE_DO_OURO.xlsx
+++ b/SAO_JOSE_DO_OURO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78502364-EE61-4C54-8ED8-EC1B3248393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC770EA9-343A-4444-BE09-AD1A96C49D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C58DA498-1547-4B1F-B6C0-9723AEA6167E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8E5932F7-7203-4AEC-82F4-E47CD70E1EC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92690BA4-0A45-4560-B387-2359A4816B1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDF9016-3C6B-4CD6-B567-A695F4EEFC90}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE2AE81-5FFC-4B7E-806B-147BC57D9956}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC91076-55A0-4319-9A84-0AC81AB32555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC96361B-58ED-4DAD-A0C0-1153B14EB0BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38073F52-5331-488B-B2A2-EC3480DE2BA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6F549A-0D11-8A65-6DE9-265DDE53BD80}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146E18FD-8781-D033-87E7-6A9CB3510646}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC826D76-8D64-63A0-8B78-80491154ADD2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0476F8DE-C838-E3C9-0384-D5D49ABD813B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4943A1-6F70-F386-EDF8-9A71465E6B6F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A21820-26EA-100C-763B-299BE1789D34}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CE59AF-739F-F09C-EE2C-238E639D5D5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A505559-ADD9-F044-A9B7-C61D40ECE050}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C08657B-E269-640D-F87D-B1E6073BA8F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980454E0-236B-B84C-03DF-7BC2C2D5E747}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A98550-3B93-473E-A98A-87C4A3297EC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354E58B9-37C7-4386-9CDE-527E8B9243B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF722E3-AFEA-4850-A13E-ED8E1C94CFA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E75C361-A19E-401B-802F-1BA29DD41414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,50 +1561,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFB3E78-06E8-4898-A971-6112737DE31E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1892,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9787EB0-2D88-4EA9-BD91-E236102083C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635B8A64-D29A-4733-A002-2775AF6FFD08}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
